--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miregistrodeventas-spa\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Moneda</t>
   </si>
   <si>
-    <t>Codigo</t>
+    <t>Numero</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Codigo"/>
+    <tableColumn id="1" name="Numero"/>
     <tableColumn id="2" name="Codigo de barras"/>
     <tableColumn id="3" name="Codigo de proveedor"/>
     <tableColumn id="4" name="Nombre"/>

--- a/public/files/articulos-base.xlsx
+++ b/public/files/articulos-base.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Escritorio\mariano pets\excel comerciocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A35B1-97DC-48C7-B3E1-F226D81A88D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Codigo de barras</t>
   </si>
@@ -69,12 +70,15 @@
   </si>
   <si>
     <t>Numero</t>
+  </si>
+  <si>
+    <t>Unidad medida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,24 +128,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Numero"/>
-    <tableColumn id="2" name="Codigo de barras"/>
-    <tableColumn id="3" name="Codigo de proveedor"/>
-    <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Categoria"/>
-    <tableColumn id="6" name="Sub Categoria"/>
-    <tableColumn id="7" name="Stock actual"/>
-    <tableColumn id="8" name="Stock minimo"/>
-    <tableColumn id="9" name="Iva"/>
-    <tableColumn id="10" name="Proveedor"/>
-    <tableColumn id="11" name="Costo"/>
-    <tableColumn id="12" name="Margen de ganancia"/>
-    <tableColumn id="13" name="Descuentos"/>
-    <tableColumn id="14" name="Precio"/>
-    <tableColumn id="15" name="Moneda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:P2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codigo de barras"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codigo de proveedor"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Categoria"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Categoria"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stock actual"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Stock minimo"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Iva"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Proveedor"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Costo"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Margen de ganancia"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Descuentos"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Precio"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Moneda"/>
+    <tableColumn id="16" xr3:uid="{8FCEF790-7668-4990-8076-B42BB8497C42}" name="Unidad medida"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -409,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +427,7 @@
     <col min="10" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -467,6 +472,9 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
